--- a/sentimenuji.xlsx
+++ b/sentimenuji.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\STBI\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{318D7EA0-BFC9-430F-A413-A7144366F369}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{1EAB69AA-7890-491E-96EE-E011154CC51F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="sentimenuji" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,158 +19,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Pos</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Sulawesi, bila di 2014, suara Jokowi sangat terbantu karena keberadaan JK. Di </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF635026"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF635026"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pilpres2019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF14171A"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> petanya akan berbalik, Sulawesi akan menjadi penyumbang suara cukup besar bagi </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF635026"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>#PrabowoSandi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF14171A"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Salah satu sebabnya karena komandan lapangan 2014, berbalik dukung Prabowo </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF635026"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>#iDeasRabbani</t>
-    </r>
-  </si>
-  <si>
-    <t>@RabbaniProjects</t>
-  </si>
-  <si>
     <t>Neg</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Kata pak </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF635026"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>@jokowi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF14171A"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ini HOAX, Kartu aja belum di cetak uda muncul fitnah fitnah seperti itu. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF635026"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF635026"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pilpres2019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF14171A"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> CC </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF635026"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>@AndiArief__</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF14171A"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF635026"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>@ustadtengkuzul</t>
-    </r>
-  </si>
-  <si>
-    <t>@Elina_Vay</t>
-  </si>
-  <si>
     <t>class</t>
   </si>
   <si>
@@ -187,13 +37,73 @@
   </si>
   <si>
     <t>tgl</t>
+  </si>
+  <si>
+    <t>TES BACAAN AL'QURAN DLL, PARA CAPRES YG DIDORONG OLEH ULAMA ACEH, Adalah Sebuah AKIBAT dari POLITIK IDENTITAS. Pada sisi Lain CAPRES INI khususnya PRABOWO dari KELUARGA KRISTIANI. SEHINGGA INI HARUS DILAKUKAN #pilpres2019 @billy4riez @Kadir_Karding</t>
+  </si>
+  <si>
+    <t>@manika_ARB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seru neh klo diadain,, ketahuan siapa yg gak bs baca .. @TheArieAir@ApriliaLin #DebatPilpres #Pilpres2019 #KoalisiPrabohong#JokowiLagi #IndonesiaBarokah#JKWMerahPutih </t>
+  </si>
+  <si>
+    <t>@WoodyWoo40445541</t>
+  </si>
+  <si>
+    <t>Kalau jarak waktunya terlalu lama nanti kandidatnya bisa lupa #ModeratorDebat #Pilpres2019</t>
+  </si>
+  <si>
+    <t>@bartaarjuana</t>
+  </si>
+  <si>
+    <t>Soal kriteria mengaji atau test bahasa Inggris dalam debat Capres, coba diteliti siapa yang mengusulkan kriteria itu? Ini bukan lagi niat baik menyimak kualitas kandidat, tetapi sudah ada usaha sama2 saling menyingkirkan. #pilpres2019</t>
+  </si>
+  <si>
+    <t>@nurudnwriter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isu PKI 1000% HOAX.... @semiaji_w@Irenecutemom #DebatPilpres #Pilpres2019 #KoalisiPrabohong#JokowiLagi #IndonesiaBarokah#JKWMerahPutih </t>
+  </si>
+  <si>
+    <t>@LamaSelera</t>
+  </si>
+  <si>
+    <t>Lewat buku ini, kita akan diajak menyelami kehidupan, pemikiran, dan kerja2 Presiden Jokowi. Terlepas Anda pendukung Presiden Jokowi atau bukan dalam #Pilpres2019, buku ini sangat menarik u/ Anda baca. Saya undang mas @budimandjatmiko u/ meng-RT</t>
+  </si>
+  <si>
+    <t>@DarulAzis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persaudaraan Alumni (PA) 212 menilai tes baca Alquran untuk capres dan cawapres belum perlu dilakukan. Apa alasannya? #PA212 #Pilpres2019 </t>
+  </si>
+  <si>
+    <t>@detikcom</t>
+  </si>
+  <si>
+    <t>jkw Maruf unggul 20 % d survay internal #survei #pemilu2019 #pilpres2019 #jokowilagi #jokowiamin #01indonesiamaju</t>
+  </si>
+  <si>
+    <t>@TamaraKirana2</t>
+  </si>
+  <si>
+    <t>Kita generasi pintar yang selalu melakukan riset sebelum menentukan pilihan. Ayok sama-sama kita pelajari dulu Visi Misi dan Program Aksi CALON PRESIDEN 2019-2024. #Pilpres2019</t>
+  </si>
+  <si>
+    <t>@caesartalks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stop! Jadikan masjid untuk politik praktis. #kampanyedamai #pilpres #Pilpres2019 </t>
+  </si>
+  <si>
+    <t>@Dillaratnasarie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,22 +114,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF14171A"/>
-      <name val="Segoe UI"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF635026"/>
-      <name val="Segoe UI"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF635026"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -239,16 +145,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -307,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -359,7 +268,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -553,68 +462,185 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B16A8F-F5A4-427A-9293-5E1F57756C7D}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="249.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="3">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D3" s="3">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3">
+        <v>43464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3">
+        <v>43829</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3">
         <v>43465</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3">
-        <v>43468</v>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3">
+        <v>43467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3">
+        <v>43466</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" display="https://twitter.com/hashtag/Pilpres2019?src=hash"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://twitter.com/hashtag/pilpres2019?src=hash"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>